--- a/HSC_model/HSC_MI/HSC_MI.xlsx
+++ b/HSC_model/HSC_MI/HSC_MI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\2._Semester_FS23\Projekt_Work_Research_Group_2\Habitatmodellierung\Habitat_Model\PWRG2\Suitability_Curves_Data\VZH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\HSC_model\HSC_MI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C87DA-D375-47E3-9794-131A75B2E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB9110-17EE-4BD7-89AB-5C6657BB4378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,19 +228,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1334,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
